--- a/3_output/tablas/2_desc_tabl.xlsx
+++ b/3_output/tablas/2_desc_tabl.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccl0-my.sharepoint.com/personal/ciortiz1_uc_cl/Documents/Investigación y proyectos/[COBA] Cohesión Barrial/dse-cob-tesis/3_output/tablas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="11_F05653350039EB0E8EE07B42B85D1B93925914C2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96A15BCC-EC28-48CF-9E68-064CD8CD5A84}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="11_F05653350039EB0E8EE07B42B85D1B93925914C2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EE06FA1-D233-47E4-A48B-85598AB5503C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="variables" sheetId="1" r:id="rId1"/>
+    <sheet name="gse" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="122">
   <si>
     <t>Variable</t>
   </si>
@@ -200,9 +201,6 @@
     <t>1.1</t>
   </si>
   <si>
-    <t>NSE residente</t>
-  </si>
-  <si>
     <t>0.55</t>
   </si>
   <si>
@@ -273,13 +271,142 @@
   </si>
   <si>
     <t>Pertenencia barrial</t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>Alto</t>
+  </si>
+  <si>
+    <t>Medio</t>
+  </si>
+  <si>
+    <t>Bajo</t>
+  </si>
+  <si>
+    <t>3.88</t>
+  </si>
+  <si>
+    <t>3.54</t>
+  </si>
+  <si>
+    <t>3.29</t>
+  </si>
+  <si>
+    <t>3.39</t>
+  </si>
+  <si>
+    <t>3.27</t>
+  </si>
+  <si>
+    <t>3.93</t>
+  </si>
+  <si>
+    <t>3.35</t>
+  </si>
+  <si>
+    <t>2.73</t>
+  </si>
+  <si>
+    <t>4.18</t>
+  </si>
+  <si>
+    <t>3.72</t>
+  </si>
+  <si>
+    <t>3.48</t>
+  </si>
+  <si>
+    <t>Sentimiento de seguridad</t>
+  </si>
+  <si>
+    <t>3.71</t>
+  </si>
+  <si>
+    <t>3.17</t>
+  </si>
+  <si>
+    <t>2.96</t>
+  </si>
+  <si>
+    <t>0.734</t>
+  </si>
+  <si>
+    <t>0.594</t>
+  </si>
+  <si>
+    <t>0.728</t>
+  </si>
+  <si>
+    <t>0.131</t>
+  </si>
+  <si>
+    <t>0.112</t>
+  </si>
+  <si>
+    <t>0.150</t>
+  </si>
+  <si>
+    <t>51.3</t>
+  </si>
+  <si>
+    <t>50.7</t>
+  </si>
+  <si>
+    <t>50.6</t>
+  </si>
+  <si>
+    <t>8.03</t>
+  </si>
+  <si>
+    <t>6.28</t>
+  </si>
+  <si>
+    <t>4.64</t>
+  </si>
+  <si>
+    <t>Estatus subjetivo</t>
+  </si>
+  <si>
+    <t>6.41</t>
+  </si>
+  <si>
+    <t>4.82</t>
+  </si>
+  <si>
+    <t>4.29</t>
+  </si>
+  <si>
+    <t>Tiempo residencia</t>
+  </si>
+  <si>
+    <t>13.9</t>
+  </si>
+  <si>
+    <t>18.9</t>
+  </si>
+  <si>
+    <t>23.8</t>
+  </si>
+  <si>
+    <t>Puntaje ISMT</t>
+  </si>
+  <si>
+    <t>0.770</t>
+  </si>
+  <si>
+    <t>0.596</t>
+  </si>
+  <si>
+    <t>0.467</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -288,6 +415,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -343,7 +484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -356,10 +497,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -377,6 +523,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -658,10 +808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -683,7 +833,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>2</v>
@@ -700,24 +850,24 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -953,19 +1103,19 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>8</v>
@@ -976,7 +1126,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>27</v>
@@ -999,13 +1149,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>19</v>
@@ -1022,13 +1172,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>19</v>
@@ -1045,13 +1195,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>19</v>
@@ -1068,13 +1218,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>19</v>
@@ -1091,13 +1241,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>19</v>
@@ -1114,14 +1264,14 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="D20" s="4" t="s">
         <v>19</v>
       </c>
@@ -1135,23 +1285,224 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A21:G21"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="B2:B3 B4:C20 D2:F10" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816D0F19-BFEF-4EC7-A3D8-46ED8B72E3B9}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="9"/>
+      <c r="B1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/3_output/tablas/2_desc_tabl.xlsx
+++ b/3_output/tablas/2_desc_tabl.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccl0-my.sharepoint.com/personal/ciortiz1_uc_cl/Documents/Investigación y proyectos/[COBA] Cohesión Barrial/dse-cob-tesis/3_output/tablas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\OneDrive - Universidad Católica de Chile\Investigación y proyectos\[COBA] Cohesión Barrial\dse-cob-tesis\3_output\tablas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="11_F05653350039EB0E8EE07B42B85D1B93925914C2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EE06FA1-D233-47E4-A48B-85598AB5503C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315D44A0-102C-40C4-9B55-8E6D6BE41C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variables" sheetId="1" r:id="rId1"/>
     <sheet name="gse" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="89">
   <si>
     <t>Variable</t>
   </si>
@@ -276,130 +277,31 @@
     <t>Variables</t>
   </si>
   <si>
-    <t>Alto</t>
-  </si>
-  <si>
-    <t>Medio</t>
-  </si>
-  <si>
-    <t>Bajo</t>
-  </si>
-  <si>
-    <t>3.88</t>
-  </si>
-  <si>
-    <t>3.54</t>
-  </si>
-  <si>
-    <t>3.29</t>
-  </si>
-  <si>
-    <t>3.39</t>
-  </si>
-  <si>
-    <t>3.27</t>
-  </si>
-  <si>
-    <t>3.93</t>
-  </si>
-  <si>
-    <t>3.35</t>
-  </si>
-  <si>
-    <t>2.73</t>
-  </si>
-  <si>
-    <t>4.18</t>
-  </si>
-  <si>
-    <t>3.72</t>
-  </si>
-  <si>
-    <t>3.48</t>
-  </si>
-  <si>
     <t>Sentimiento de seguridad</t>
   </si>
   <si>
-    <t>3.71</t>
-  </si>
-  <si>
-    <t>3.17</t>
-  </si>
-  <si>
-    <t>2.96</t>
-  </si>
-  <si>
-    <t>0.734</t>
-  </si>
-  <si>
-    <t>0.594</t>
-  </si>
-  <si>
-    <t>0.728</t>
-  </si>
-  <si>
-    <t>0.131</t>
-  </si>
-  <si>
-    <t>0.112</t>
-  </si>
-  <si>
-    <t>0.150</t>
-  </si>
-  <si>
-    <t>51.3</t>
-  </si>
-  <si>
-    <t>50.7</t>
-  </si>
-  <si>
-    <t>50.6</t>
-  </si>
-  <si>
-    <t>8.03</t>
-  </si>
-  <si>
-    <t>6.28</t>
-  </si>
-  <si>
-    <t>4.64</t>
-  </si>
-  <si>
     <t>Estatus subjetivo</t>
   </si>
   <si>
-    <t>6.41</t>
-  </si>
-  <si>
-    <t>4.82</t>
-  </si>
-  <si>
-    <t>4.29</t>
-  </si>
-  <si>
     <t>Tiempo residencia</t>
   </si>
   <si>
-    <t>13.9</t>
-  </si>
-  <si>
-    <t>18.9</t>
-  </si>
-  <si>
-    <t>23.8</t>
-  </si>
-  <si>
     <t>Puntaje ISMT</t>
   </si>
   <si>
-    <t>0.770</t>
-  </si>
-  <si>
-    <t>0.596</t>
-  </si>
-  <si>
-    <t>0.467</t>
+    <t>Homogeneidad social</t>
+  </si>
+  <si>
+    <t>Vitalidad entorno</t>
+  </si>
+  <si>
+    <t>NSE Alto</t>
+  </si>
+  <si>
+    <t>NSE Medio</t>
+  </si>
+  <si>
+    <t>NSE Bajo</t>
   </si>
 </sst>
 </file>
@@ -421,18 +323,15 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Lato"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Lato"/>
     </font>
   </fonts>
   <fills count="2">
@@ -443,7 +342,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -480,11 +379,128 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -500,12 +516,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -525,8 +563,70 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CD5B63D-C026-DDD5-3E28-03EFC7DBE230}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="219075" y="295275"/>
+          <a:ext cx="5257800" cy="3524250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -810,7 +910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -1103,7 +1203,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>27</v>
@@ -1296,213 +1396,385 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816D0F19-BFEF-4EC7-A3D8-46ED8B72E3B9}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.1796875" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="9"/>
-      <c r="B1" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="22" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A1" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="21.5" x14ac:dyDescent="0.6">
       <c r="A2" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="10">
+        <v>3.88</v>
+      </c>
+      <c r="C2" s="10">
+        <v>3.54</v>
+      </c>
+      <c r="D2" s="11">
+        <v>3.29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="22" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="12">
+        <v>3.54</v>
+      </c>
+      <c r="C3" s="12">
+        <v>3.39</v>
+      </c>
+      <c r="D3" s="13">
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="21.5" x14ac:dyDescent="0.6">
+      <c r="A4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="10">
+        <v>3.93</v>
+      </c>
+      <c r="C4" s="10">
+        <v>3.35</v>
+      </c>
+      <c r="D4" s="11">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="21.5" x14ac:dyDescent="0.6">
+      <c r="A5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="14">
+        <v>4.18</v>
+      </c>
+      <c r="C5" s="14">
+        <v>3.72</v>
+      </c>
+      <c r="D5" s="15">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="22" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A6" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="B6" s="12">
+        <v>3.71</v>
+      </c>
+      <c r="C6" s="12">
+        <v>3.17</v>
+      </c>
+      <c r="D6" s="13">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="21.5" x14ac:dyDescent="0.6">
+      <c r="A7" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="10">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0.72799999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="22" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A8" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="12">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="C8" s="12">
+        <v>0.112</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="21.5" x14ac:dyDescent="0.6">
+      <c r="A9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="14">
+        <v>51.3</v>
+      </c>
+      <c r="C9" s="14">
+        <v>50.7</v>
+      </c>
+      <c r="D9" s="15">
+        <v>50.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="21.5" x14ac:dyDescent="0.6">
+      <c r="A10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="14">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="C10" s="14">
+        <v>6.28</v>
+      </c>
+      <c r="D10" s="15">
+        <v>4.6399999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="21.5" x14ac:dyDescent="0.6">
+      <c r="A11" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="B11" s="14">
+        <v>6.41</v>
+      </c>
+      <c r="C11" s="14">
+        <v>4.82</v>
+      </c>
+      <c r="D11" s="15">
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="21.5" x14ac:dyDescent="0.6">
+      <c r="A12" s="8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="B12" s="14">
+        <v>13.9</v>
+      </c>
+      <c r="C12" s="14">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="D12" s="15">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="22" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="A13" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>121</v>
+      <c r="B13" s="12">
+        <v>0.77</v>
+      </c>
+      <c r="C13" s="12">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0.46700000000000003</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:D1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="2" id="{0780092F-8C6C-44BD-861E-020068EF86F4}">
+            <x14:iconSet iconSet="3Triangles">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>33</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>67</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>B13:D13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="11" id="{158E3509-71DC-4CDE-83B4-7EA71045FC28}">
+            <x14:iconSet iconSet="3Triangles">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>33</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>67</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>B2:D4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="10" id="{AD353582-D0A5-48C0-8E37-43D785A29948}">
+            <x14:iconSet iconSet="3Triangles">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>33</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>67</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>B5:D5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{644A6392-1C78-414F-8C25-7F0C576EF2DF}">
+            <x14:iconSet iconSet="3Triangles">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>33</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>67</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>B6:D6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="8" id="{B9B7CC0D-97EA-4946-9AD8-5860D713C241}">
+            <x14:iconSet iconSet="3Triangles">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>33</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>67</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>B7:D7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="7" id="{0563A8F1-C066-4E85-B8EC-9A2C1FD92EF3}">
+            <x14:iconSet iconSet="3Triangles">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>33</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>67</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>B8:D8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="6" id="{335B2145-7352-405C-BAD4-45757B04195A}">
+            <x14:iconSet iconSet="3Triangles">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>33</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>67</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>B9:D9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="5" id="{037ACA0A-C9D8-46A8-B2B6-C7FA3686AF14}">
+            <x14:iconSet iconSet="3Triangles">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>33</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>67</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>B10:D10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="4" id="{6F82EB53-CAEC-464E-9828-486EE7422731}">
+            <x14:iconSet iconSet="3Triangles">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>33</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>67</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>B11:D11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="3" id="{CF379962-DB3D-4CF3-9414-70DB5CAFF12B}">
+            <x14:iconSet iconSet="3Triangles">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>33</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>67</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>B12:D12</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02846D24-E74C-48FC-BD0F-2A1C8D2C0257}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>